--- a/Data/output.xlsx
+++ b/Data/output.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="34">
+  <si>
+    <t>Folder Name</t>
+  </si>
   <si>
     <t>Old Path</t>
   </si>
@@ -32,7 +35,22 @@
     <t>searchResult/searchOutput/claims[*]/claimInfoCodes[*]/claimNumber</t>
   </si>
   <si>
-    <t>data/claimIdentifiers/payerClaimControlNumber</t>
+    <t>data[*]/claimIdentifiers/payerClaimControlNumber</t>
+  </si>
+  <si>
+    <t>43919054</t>
+  </si>
+  <si>
+    <t>PNX43919054</t>
+  </si>
+  <si>
+    <t>Partial Match</t>
+  </si>
+  <si>
+    <t>searchResult/searchOutput/claims[*]/claimInfoCodes[*]/claimPaymentTotal</t>
+  </si>
+  <si>
+    <t>data[*]/totals/totalClaimPaidAmount</t>
   </si>
   <si>
     <t>null</t>
@@ -41,28 +59,61 @@
     <t>Not Matched</t>
   </si>
   <si>
-    <t>searchResult/searchOutput/claims[*]/claimInfoCodes[*]/claimPaymentTotal</t>
-  </si>
-  <si>
-    <t>data/totals/totalClaimPaidAmount</t>
-  </si>
-  <si>
     <t>searchResult/searchOutput/claims[*]/claimInfoCodes[*]/reasonCode</t>
   </si>
   <si>
-    <t>data/reasonCodes[*]/claimDenialReasonCode</t>
+    <t>data[*]/reasonCodes[*]/claimDenialReasonCode</t>
   </si>
   <si>
     <t>searchResult/searchOutput/businessType</t>
   </si>
   <si>
-    <t>data/claimType</t>
+    <t>data[*]/claimType</t>
   </si>
   <si>
     <t>searchResult/searchOutput/memberNo</t>
   </si>
   <si>
-    <t>data/patient/memberId</t>
+    <t>data[*]/patient/memberId</t>
+  </si>
+  <si>
+    <t>7664395612</t>
+  </si>
+  <si>
+    <t>54630084</t>
+  </si>
+  <si>
+    <t>PNX54630084</t>
+  </si>
+  <si>
+    <t>5037270544</t>
+  </si>
+  <si>
+    <t>93663741</t>
+  </si>
+  <si>
+    <t>PNX93663741</t>
+  </si>
+  <si>
+    <t>0769898065</t>
+  </si>
+  <si>
+    <t>02100144</t>
+  </si>
+  <si>
+    <t>PNX02100144</t>
+  </si>
+  <si>
+    <t>2811933580</t>
+  </si>
+  <si>
+    <t>71675743</t>
+  </si>
+  <si>
+    <t>PNX71675743</t>
+  </si>
+  <si>
+    <t>9259397287</t>
   </si>
 </sst>
 </file>
@@ -107,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,90 +180,433 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B9" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="C12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>8</v>
+      <c r="C17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
